--- a/test_data/bom0.xlsx
+++ b/test_data/bom0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t xml:space="preserve">Quantity</t>
   </si>
@@ -51,6 +51,21 @@
     <t xml:space="preserve">MountTechnology</t>
   </si>
   <si>
+    <t xml:space="preserve">NODE 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE farnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE prova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE sdfk</t>
+  </si>
+  <si>
     <t xml:space="preserve">C0, C1</t>
   </si>
   <si>
@@ -93,6 +108,15 @@
     <t xml:space="preserve">thd</t>
   </si>
   <si>
+    <t xml:space="preserve">fgjldkfj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45dg345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ubfgb</t>
+  </si>
+  <si>
     <t xml:space="preserve">C5, C6</t>
   </si>
   <si>
@@ -106,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">abcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdfads</t>
   </si>
 </sst>
 </file>
@@ -258,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,34 +353,55 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1234</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>23425</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -361,28 +409,40 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>567568</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>53634</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -390,34 +450,40 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>43534</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>
@@ -436,7 +502,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="6" width="8.83"/>
   </cols>
@@ -514,7 +580,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>
@@ -533,7 +599,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="6" width="8.83"/>
   </cols>
@@ -611,7 +677,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;P</oddFooter>

--- a/test_data/bom0.xlsx
+++ b/test_data/bom0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t xml:space="preserve">Quantity</t>
   </si>
@@ -57,13 +57,13 @@
     <t xml:space="preserve">CODE farnell</t>
   </si>
   <si>
-    <t xml:space="preserve">CODE prova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODE sdfk</t>
+    <t xml:space="preserve">CODE mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE digikey</t>
   </si>
   <si>
     <t xml:space="preserve">C0, C1</t>
@@ -87,6 +87,27 @@
     <t xml:space="preserve">smd</t>
   </si>
   <si>
+    <t xml:space="preserve">C5, C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceramic X7R 10V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdfads</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2, C3, C4</t>
   </si>
   <si>
@@ -102,9 +123,6 @@
     <t xml:space="preserve">test</t>
   </si>
   <si>
-    <t xml:space="preserve">Bottom</t>
-  </si>
-  <si>
     <t xml:space="preserve">thd</t>
   </si>
   <si>
@@ -117,33 +135,77 @@
     <t xml:space="preserve">6ubfgb</t>
   </si>
   <si>
-    <t xml:space="preserve">C5, C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramic X7R 10V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdfads</t>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14, R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R3, R4, R5, R6, R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402_[0603]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12, R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+3.3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket, 2.54mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -165,13 +227,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -187,19 +242,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -235,36 +283,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,60 +317,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="257" style="2" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -370,19 +387,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -404,82 +421,320 @@
         <v>23425</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>567568</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>43534</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>53634</v>
-      </c>
-      <c r="M7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
+      <c r="G8" s="1" t="n">
+        <v>567568</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>53634</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>33423</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <v>43534</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
+      <c r="M10" s="1" t="n">
+        <v>334324</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>55665</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>334324</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>12344</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>334324</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>334324</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>334324</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>980809</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
@@ -499,83 +754,83 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="6" width="8.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="2" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -596,83 +851,83 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="6" width="8.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="1" style="2" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
